--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject13.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject13.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.83301819973320046</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.85116295455488478</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -263,7 +263,7 @@
         <v>0</v>
       </c>
       <c r="AT1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU1" s="0">
         <v>0</v>
@@ -326,33 +326,33 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.9797204760663254</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.76724538053269331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.56163921695470886</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>0.97739534477758516</v>
       </c>
       <c r="F2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>0</v>
+        <v>0.83817415733060763</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>0</v>
+        <v>0.52372083937243397</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>0</v>
+        <v>0.87562600996223816</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0</v>
+        <v>0.8510461504852701</v>
       </c>
       <c r="BL2" s="0">
         <v>0</v>
@@ -540,19 +540,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.98702981104082932</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.54659564562081797</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>0</v>
+        <v>0.97210687429943543</v>
       </c>
       <c r="N3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.66714454629032705</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>1</v>
+        <v>0.5845085615483645</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="0">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="0">
-        <v>0</v>
+        <v>0.80172477862979385</v>
       </c>
       <c r="BB4" s="0">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="BP4" s="0">
-        <v>0</v>
+        <v>0.81171471832210829</v>
       </c>
     </row>
     <row r="5">
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>0.57215952686896809</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.94716171305632901</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="0">
-        <v>0</v>
+        <v>0.87052521830084695</v>
       </c>
       <c r="Q5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0</v>
+        <v>0.51417182543283202</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
@@ -1170,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.61415521052345978</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.89677664491672882</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.63076829600462914</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="0">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="0">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.709163168596188</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.71155010228448345</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.62573555738078879</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="0">
         <v>0</v>
@@ -1582,22 +1582,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.93485981683849273</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.66252364262513486</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.54824848411860683</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.94478462470499069</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="0">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.72249300366651181</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.64964787247656175</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.67729762807584226</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.8342320277036408</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="0">
-        <v>0</v>
+        <v>0.72658637774787471</v>
       </c>
       <c r="AM9" s="0">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.7090872347024133</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.92906798381968403</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.55524074249371913</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>0</v>
+        <v>0.68047947145426235</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2212,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.66219362038871898</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.91373327907225677</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.57707588863362691</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0</v>
+        <v>0.79731362970515063</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.97894671700735547</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="0">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.81174551567362319</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.77989137001795672</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.61975350650357219</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="0">
-        <v>0</v>
+        <v>0.59214638661559227</v>
       </c>
       <c r="AO12" s="0">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>0.76361966716826002</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.53316026133669048</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.54476965136685829</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.95802836424529136</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.56146843978684391</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.5306959317653106</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.92802981634508785</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="0">
-        <v>1</v>
+        <v>0.56189419655110295</v>
       </c>
       <c r="AT14" s="0">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="BE14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.66909641180436485</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.83331600404648487</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.62587632295590201</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.77700702059295557</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="0">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>0.55587584136658363</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.88811183255185888</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="0">
-        <v>0</v>
+        <v>0.51983096247465665</v>
       </c>
       <c r="X16" s="0">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
+        <v>0.94776298269716808</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.64643767966024213</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="0">
-        <v>0</v>
+        <v>0.95426801858964194</v>
       </c>
       <c r="AJ17" s="0">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.85603729261816119</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.52355473271672448</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3887,22 +3887,22 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.80061272424477303</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.95039062707563915</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.79112091435436627</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
       </c>
       <c r="W19" s="0">
-        <v>0</v>
+        <v>0.85238724763092599</v>
       </c>
       <c r="X19" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0</v>
+        <v>0.66560572285998043</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.76603306474053057</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.6907698365424636</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.97999741083878722</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.65666667581130611</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.57556449354045558</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.63429081181921831</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.66676795014831536</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4419,13 +4419,13 @@
         <v>0</v>
       </c>
       <c r="BF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="0">
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>0</v>
+        <v>0.70851670490050067</v>
       </c>
       <c r="BI21" s="0">
         <v>0</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="0">
-        <v>0</v>
+        <v>0.67928246348088916</v>
       </c>
       <c r="C22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.63852598270818883</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.57874091046126785</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.96613419560497715</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="0">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="0">
-        <v>0</v>
+        <v>0.57603526640910263</v>
       </c>
       <c r="Q23" s="0">
         <v>0</v>
@@ -4714,22 +4714,22 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>0</v>
+        <v>0.81614267349852776</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.66292053889014613</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="0">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="0">
         <v>0</v>
@@ -4881,13 +4881,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.8218626138425511</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.59876856413055202</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.68435469344161248</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5055,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM24" s="0">
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>0</v>
+        <v>0.51817917735586139</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.84889914156694557</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0</v>
+        <v>0.75693181974370649</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.71073266711786398</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AX25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="0">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>0</v>
+        <v>0.78083624644099692</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0</v>
+        <v>0.83936592414256384</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.50723611674877367</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.73134797423992781</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="0">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.78320131695701867</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.69097966779957209</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.87174776349688876</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.53438842063431558</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.55536734131058851</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.52041986663960582</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.70750214635237618</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>0</v>
+        <v>0.58883165571981699</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.67252175901592559</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,19 +5983,19 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
       </c>
       <c r="AG29" s="0">
-        <v>0</v>
+        <v>0.62913237187069337</v>
       </c>
       <c r="AH29" s="0">
-        <v>0</v>
+        <v>0.87590465121128469</v>
       </c>
       <c r="AI29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>0.5097261216861082</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.8168361260638014</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.89213828311990484</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="0">
         <v>0</v>
@@ -6392,22 +6392,22 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.87857820767786454</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.61535429453996615</v>
       </c>
       <c r="AH31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="BE31" s="0">
-        <v>0</v>
+        <v>0.83364886124462734</v>
       </c>
       <c r="BF31" s="0">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="0">
         <v>0</v>
@@ -6601,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.53677167093914524</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.60952298167752228</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.97562005097190529</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AV32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="0">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="0">
-        <v>0</v>
+        <v>0.65180376217704761</v>
       </c>
       <c r="BB32" s="0">
         <v>0</v>
@@ -6804,25 +6804,25 @@
         <v>0</v>
       </c>
       <c r="AC33" s="0">
-        <v>0</v>
+        <v>0.52887699542968347</v>
       </c>
       <c r="AD33" s="0">
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.70018453773432854</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.50743059655822309</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.8896861066258821</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.91130227758839499</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -7010,28 +7010,28 @@
         <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>0</v>
+        <v>0.96160949045900468</v>
       </c>
       <c r="AD34" s="0">
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="0">
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.82895816928314381</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.642989928158609</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.72651822786936648</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="BP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0</v>
+        <v>0.94881167775520225</v>
       </c>
       <c r="R35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.9451349825763411</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.65045072713263674</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.8420415505383374</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.6673879139456913</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="0">
-        <v>0</v>
+        <v>0.70023018000965265</v>
       </c>
       <c r="AR35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>0</v>
+        <v>0.88754641788814226</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.50880515070549226</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.64868228576433595</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.88836854314742786</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.83827440779751428</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.82972377508974593</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.60070662555470022</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.51542840022162506</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="0">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="BF37" s="0">
-        <v>0</v>
+        <v>0.65046968463283994</v>
       </c>
       <c r="BG37" s="0">
         <v>0</v>
@@ -7774,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="0">
-        <v>0</v>
+        <v>0.78368070540622847</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.55694345497528497</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="0">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.79100502623078461</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.6929569168713543</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.71909215586619069</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>0</v>
+        <v>0.56582347299094082</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="0">
         <v>0</v>
@@ -8192,10 +8192,10 @@
         <v>0</v>
       </c>
       <c r="K40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>0</v>
+        <v>0.50016473468752987</v>
       </c>
       <c r="M40" s="0">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.61279537298984588</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="BN40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO40" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.65701953753041176</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.89464179881820871</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>0</v>
+        <v>0.84054981642780291</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.99424032712788768</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.51452445992466567</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.53491109856901109</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>0</v>
+        <v>0.7570087672885526</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="0">
-        <v>0</v>
+        <v>0.53724458240881179</v>
       </c>
       <c r="AJ43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.68771923431870463</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.8812722974234497</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.50871547982767329</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9094,10 +9094,10 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
@@ -9109,25 +9109,25 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.70328588205503739</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.73055071379880543</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.93389533864361807</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>0</v>
+        <v>0.67794117236780638</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="0">
-        <v>0</v>
+        <v>0.75459148803745268</v>
       </c>
       <c r="BK44" s="0">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="BN44" s="0">
-        <v>0</v>
+        <v>0.98459241290921229</v>
       </c>
       <c r="BO44" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>1</v>
+        <v>0.58516142065028065</v>
       </c>
       <c r="O45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.81657210702731753</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0</v>
+        <v>0.78449086816402591</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="0">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.91366150885332975</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.86965931425251708</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.66558277689568246</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.91042854049354216</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>0</v>
+        <v>0.69150846366307483</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.71187627735389059</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.50761848173747293</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.85494943459614203</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="0">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="0">
         <v>0</v>
@@ -9939,16 +9939,16 @@
         <v>0</v>
       </c>
       <c r="AR48" s="0">
-        <v>0</v>
+        <v>0.82756306218239439</v>
       </c>
       <c r="AS48" s="0">
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.95655796929883641</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.71941675935656146</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.98936897021034742</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>0</v>
+        <v>0.77500218715922986</v>
       </c>
     </row>
     <row r="49">
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="0">
-        <v>0</v>
+        <v>0.92955377476203327</v>
       </c>
       <c r="C49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.60155217358620883</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.6689171242606089</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.60330435835438356</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="0">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>0</v>
+        <v>0.75109004961331038</v>
       </c>
       <c r="AQ50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.68639994622819844</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.80065520564080295</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.75630354743177741</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0</v>
+        <v>0.6877557601562938</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.83703930792555048</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.97910130482975222</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.68142271431292223</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.9354947295749555</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0</v>
+        <v>0.91244101438822878</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>0</v>
+        <v>0.61858669769705932</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.63043666313156232</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.95297108712631529</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.76550312846395319</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0</v>
+        <v>0.96657455251813285</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>0</v>
+        <v>0.86830378431147237</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="AF53" s="0">
-        <v>0</v>
+        <v>0.99360717272285881</v>
       </c>
       <c r="AG53" s="0">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.64754893726612717</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.7969728553838642</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="BN53" s="0">
-        <v>0</v>
+        <v>0.50155228117638551</v>
       </c>
       <c r="BO53" s="0">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.63357290701283031</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11208,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.51451119122788935</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.50553148786796109</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.6239340317689841</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.53561568463985343</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.68948911669720725</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.9232758607249848</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.75520023351415078</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.9521493680495754</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.65711307378967743</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11703,10 +11703,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="0">
-        <v>0</v>
+        <v>0.69815079396881097</v>
       </c>
       <c r="AF57" s="0">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="AO57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP57" s="0">
         <v>0</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.94669916851226144</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.95831493640043885</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.63257818283568124</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="0">
         <v>0</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
@@ -11972,13 +11972,13 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>0</v>
+        <v>0.67294077044836276</v>
       </c>
       <c r="AJ58" s="0">
         <v>0</v>
       </c>
       <c r="AK58" s="0">
-        <v>0</v>
+        <v>0.82510142658196117</v>
       </c>
       <c r="AL58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.7504443008206132</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.83607376631026153</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.87469615267175282</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12247,16 +12247,16 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.61087484637040745</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.94566145180306971</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.98294321235426607</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="BM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN59" s="0">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>0</v>
+        <v>0.71859879222378908</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.72216728498516081</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.90470971419309132</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.89495581955735204</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.5948249562033241</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.90815882463315778</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.93745613843225639</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.50521779631236918</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12823,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="AR62" s="0">
-        <v>0</v>
+        <v>0.81831459760107739</v>
       </c>
       <c r="AS62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.54980175619141947</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.91384184537506163</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.51727591513599358</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0</v>
+        <v>0.54301432451389142</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>0</v>
+        <v>0.92144283652356196</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.86208532116581327</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.96417058223217844</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.71335936538759248</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.84863598128007911</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.87507090810340138</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.80189063397282223</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="BG65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.51064259941012002</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.77118438891128149</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.75862494161318583</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13587,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>0</v>
+        <v>0.75966891379577128</v>
       </c>
       <c r="Y66" s="0">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="AN66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="0">
         <v>0</v>
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="0">
-        <v>0</v>
+        <v>0.69018819548178167</v>
       </c>
       <c r="AS66" s="0">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="0">
-        <v>0</v>
+        <v>0.50087946035916087</v>
       </c>
       <c r="BB66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.60078949457776232</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.50083476733917509</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.93075959429579291</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.89628739025599569</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.83276423879128303</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>0</v>
+        <v>0.89527681253007141</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13916,21 +13916,21 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.78236371404939131</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.8566910247084869</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.75933948015190622</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.82623705142961223</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="0">
-        <v>0</v>
+        <v>0.56614276467485447</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>0</v>
+        <v>0.96295165584063103</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.59163930376478469</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.83878487066512331</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject13.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject13.xlsx
@@ -134,7 +134,7 @@
         <v>0.83301819973320046</v>
       </c>
       <c r="C1" s="0">
-        <v>0.85116295455488478</v>
+        <v>0.98702981104082932</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -329,12 +329,12 @@
         <v>0.9797204760663254</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.76724538053269331</v>
+        <v>0.82623705142961223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.56163921695470886</v>
+        <v>0.83301819973320046</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.83817415733060763</v>
+        <v>0.94776298269716808</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>0.52372083937243397</v>
+        <v>0.67928246348088916</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>0.87562600996223816</v>
+        <v>0.92955377476203327</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.54659564562081797</v>
+        <v>0.66714454629032705</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="0">
-        <v>0.80172477862979385</v>
+        <v>0.96657455251813285</v>
       </c>
       <c r="BB4" s="0">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>0.57215952686896809</v>
+        <v>0.97739534477758516</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0.51417182543283202</v>
+        <v>0.92144283652356196</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.61415521052345978</v>
+        <v>0.94716171305632901</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.89677664491672882</v>
       </c>
       <c r="H6" s="0">
-        <v>0.63076829600462914</v>
+        <v>0.93485981683849273</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0.709163168596188</v>
+        <v>0.89677664491672882</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0.71155010228448345</v>
       </c>
       <c r="I7" s="0">
-        <v>0.62573555738078879</v>
+        <v>0.72249300366651181</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0.93485981683849273</v>
       </c>
       <c r="G8" s="0">
-        <v>0.66252364262513486</v>
+        <v>0.71155010228448345</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.54824848411860683</v>
+        <v>0.64964787247656175</v>
       </c>
       <c r="J8" s="0">
         <v>0.94478462470499069</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.67729762807584226</v>
+        <v>0.92906798381968403</v>
       </c>
       <c r="K9" s="0">
         <v>0.8342320277036408</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="0">
-        <v>0.72658637774787471</v>
+        <v>0.78368070540622847</v>
       </c>
       <c r="AM9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.7090872347024133</v>
+        <v>0.94478462470499069</v>
       </c>
       <c r="I10" s="0">
         <v>0.92906798381968403</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.55524074249371913</v>
+        <v>0.91373327907225677</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>0.68047947145426235</v>
+        <v>0.69150846366307483</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.66219362038871898</v>
+        <v>0.8342320277036408</v>
       </c>
       <c r="J11" s="0">
         <v>0.91373327907225677</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.57707588863362691</v>
+        <v>0.81174551567362319</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0.76361966716826002</v>
+        <v>0.97210687429943543</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.53316026133669048</v>
+        <v>0.77989137001795672</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.56146843978684391</v>
+        <v>0.61975350650357219</v>
       </c>
       <c r="M14" s="0">
-        <v>0.5306959317653106</v>
+        <v>0.54476965136685829</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="0">
-        <v>0.56189419655110295</v>
+        <v>0.58516142065028065</v>
       </c>
       <c r="AT14" s="0">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.66909641180436485</v>
+        <v>0.95802836424529136</v>
       </c>
       <c r="N15" s="0">
-        <v>0.83331600404648487</v>
+        <v>0.92802981634508785</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.62587632295590201</v>
+        <v>0.88811183255185888</v>
       </c>
       <c r="Q15" s="0">
         <v>0.77700702059295557</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0.55587584136658363</v>
+        <v>0.87052521830084695</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="0">
-        <v>0.51983096247465665</v>
+        <v>0.57603526640910263</v>
       </c>
       <c r="X16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.64643767966024213</v>
+        <v>0.77700702059295557</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0.85603729261816119</v>
       </c>
       <c r="T18" s="0">
-        <v>0.52355473271672448</v>
+        <v>0.76603306474053057</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.80061272424477303</v>
+        <v>0.85603729261816119</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0.66560572285998043</v>
+        <v>0.79731362970515063</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0.76603306474053057</v>
       </c>
       <c r="S20" s="0">
-        <v>0.6907698365424636</v>
+        <v>0.95039062707563915</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4302,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.57556449354045558</v>
+        <v>0.79112091435436627</v>
       </c>
       <c r="T21" s="0">
-        <v>0.63429081181921831</v>
+        <v>0.97999741083878722</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>0.70851670490050067</v>
+        <v>0.71859879222378908</v>
       </c>
       <c r="BI21" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.63852598270818883</v>
+        <v>0.65666667581130611</v>
       </c>
       <c r="U22" s="0">
-        <v>0.57874091046126785</v>
+        <v>0.66676795014831536</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>0.81614267349852776</v>
+        <v>0.85238724763092599</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
@@ -4929,16 +4929,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.8218626138425511</v>
+        <v>0.96613419560497715</v>
       </c>
       <c r="W24" s="0">
-        <v>0.59876856413055202</v>
+        <v>0.66292053889014613</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.68435469344161248</v>
+        <v>0.84889914156694557</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>0.51817917735586139</v>
+        <v>0.75966891379577128</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.75693181974370649</v>
+        <v>0.83936592414256384</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.71073266711786398</v>
+        <v>0.78320131695701867</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>0.78083624644099692</v>
+        <v>0.86830378431147237</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.50723611674877367</v>
+        <v>0.69097966779957209</v>
       </c>
       <c r="AB26" s="0">
         <v>0.73134797423992781</v>
@@ -5568,7 +5568,7 @@
         <v>0.87174776349688876</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.53438842063431558</v>
+        <v>0.67252175901592559</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.55536734131058851</v>
+        <v>0.73134797423992781</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.52041986663960582</v>
+        <v>0.87174776349688876</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.70750214635237618</v>
+        <v>0.8168361260638014</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>0.58883165571981699</v>
+        <v>0.91244101438822878</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0.62913237187069337</v>
       </c>
       <c r="AH29" s="0">
-        <v>0.87590465121128469</v>
+        <v>0.96160949045900468</v>
       </c>
       <c r="AI29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>0.5097261216861082</v>
+        <v>0.5845085615483645</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0.87857820767786454</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.61535429453996615</v>
+        <v>0.70018453773432854</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.53677167093914524</v>
+        <v>0.89213828311990484</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.60952298167752228</v>
+        <v>0.87857820767786454</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="0">
-        <v>0.65180376217704761</v>
+        <v>0.99360717272285881</v>
       </c>
       <c r="BB32" s="0">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="0">
-        <v>0.52887699542968347</v>
+        <v>0.62913237187069337</v>
       </c>
       <c r="AD33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0.70018453773432854</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.50743059655822309</v>
+        <v>0.97562005097190529</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0.8896861066258821</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.91130227758839499</v>
+        <v>0.9451349825763411</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7022,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.82895816928314381</v>
+        <v>0.8896861066258821</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.642989928158609</v>
+        <v>0.65045072713263674</v>
       </c>
       <c r="AJ34" s="0">
         <v>0.72651822786936648</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.94881167775520225</v>
+        <v>0.95426801858964194</v>
       </c>
       <c r="R35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0.8420415505383374</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.6673879139456913</v>
+        <v>0.82972377508974593</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.50880515070549226</v>
+        <v>0.72651822786936648</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.64868228576433595</v>
+        <v>0.8420415505383374</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7649,13 +7649,13 @@
         <v>0.82972377508974593</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.60070662555470022</v>
+        <v>0.88836854314742786</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.51542840022162506</v>
+        <v>0.6929569168713543</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="BF37" s="0">
-        <v>0.65046968463283994</v>
+        <v>0.82510142658196117</v>
       </c>
       <c r="BG37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0.55694345497528497</v>
+        <v>0.97894671700735547</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.79100502623078461</v>
+        <v>0.83827440779751428</v>
       </c>
       <c r="AK38" s="0">
         <v>0.6929569168713543</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>0.56582347299094082</v>
+        <v>0.61858669769705932</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>0.50016473468752987</v>
+        <v>0.59214638661559227</v>
       </c>
       <c r="M40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.61279537298984588</v>
+        <v>0.99424032712788768</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.65701953753041176</v>
+        <v>0.71909215586619069</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.51452445992466567</v>
+        <v>0.8812722974234497</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.53491109856901109</v>
+        <v>0.70328588205503739</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="0">
-        <v>0.53724458240881179</v>
+        <v>0.70023018000965265</v>
       </c>
       <c r="AJ43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.68771923431870463</v>
+        <v>0.89464179881820871</v>
       </c>
       <c r="AP43" s="0">
         <v>0.8812722974234497</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.50871547982767329</v>
+        <v>0.73055071379880543</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>0.67794117236780638</v>
+        <v>0.82756306218239439</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="0">
-        <v>0.75459148803745268</v>
+        <v>0.81831459760107739</v>
       </c>
       <c r="BK44" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.81657210702731753</v>
+        <v>0.86965931425251708</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0.78449086816402591</v>
+        <v>0.89527681253007141</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.91366150885332975</v>
+        <v>0.93389533864361807</v>
       </c>
       <c r="AS46" s="0">
         <v>0.86965931425251708</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.66558277689568246</v>
+        <v>0.71187627735389059</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.91042854049354216</v>
+        <v>0.95655796929883641</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.50761848173747293</v>
+        <v>0.71941675935656146</v>
       </c>
       <c r="AW47" s="0">
         <v>0.85494943459614203</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>0.77500218715922986</v>
+        <v>0.96295165584063103</v>
       </c>
     </row>
     <row r="49">
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.60155217358620883</v>
+        <v>0.85494943459614203</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.6689171242606089</v>
+        <v>0.80065520564080295</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.60330435835438356</v>
+        <v>0.83703930792555048</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>0.75109004961331038</v>
+        <v>0.7570087672885526</v>
       </c>
       <c r="AQ50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.68639994622819844</v>
+        <v>0.98936897021034742</v>
       </c>
       <c r="AW50" s="0">
         <v>0.80065520564080295</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.75630354743177741</v>
+        <v>0.97910130482975222</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0.6877557601562938</v>
+        <v>0.84054981642780291</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.63043666313156232</v>
+        <v>0.68142271431292223</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.64754893726612717</v>
+        <v>0.9354947295749555</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.7969728553838642</v>
+        <v>0.95297108712631529</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.63357290701283031</v>
+        <v>0.76550312846395319</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11208,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.51451119122788935</v>
+        <v>0.6239340317689841</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.50553148786796109</v>
+        <v>0.9232758607249848</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.53561568463985343</v>
+        <v>0.75520023351415078</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.68948911669720725</v>
+        <v>0.94669916851226144</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.9521493680495754</v>
+        <v>0.95831493640043885</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.65711307378967743</v>
+        <v>0.7504443008206132</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="0">
-        <v>0.69815079396881097</v>
+        <v>0.83364886124462734</v>
       </c>
       <c r="AF57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.63257818283568124</v>
+        <v>0.83607376631026153</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>0.67294077044836276</v>
+        <v>0.88754641788814226</v>
       </c>
       <c r="AJ58" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.61087484637040745</v>
+        <v>0.87469615267175282</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.72216728498516081</v>
+        <v>0.94566145180306971</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.90470971419309132</v>
+        <v>0.90815882463315778</v>
       </c>
       <c r="BJ60" s="0">
         <v>0.89495581955735204</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.5948249562033241</v>
+        <v>0.98294321235426607</v>
       </c>
       <c r="BH61" s="0">
         <v>0.90815882463315778</v>
@@ -12674,7 +12674,7 @@
         <v>0.93745613843225639</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.50521779631236918</v>
+        <v>0.86208532116581327</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.54980175619141947</v>
+        <v>0.89495581955735204</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.91384184537506163</v>
+        <v>0.93745613843225639</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.51727591513599358</v>
+        <v>0.71335936538759248</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0.54301432451389142</v>
+        <v>0.8510461504852701</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0.71335936538759248</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.84863598128007911</v>
+        <v>0.96417058223217844</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.51064259941012002</v>
+        <v>0.87507090810340138</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0.77118438891128149</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.75862494161318583</v>
+        <v>0.78236371404939131</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="0">
-        <v>0.69018819548178167</v>
+        <v>0.98459241290921229</v>
       </c>
       <c r="AS66" s="0">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="0">
-        <v>0.50087946035916087</v>
+        <v>0.50155228117638551</v>
       </c>
       <c r="BB66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.60078949457776232</v>
+        <v>0.80189063397282223</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.50083476733917509</v>
+        <v>0.77118438891128149</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.83276423879128303</v>
+        <v>0.9797204760663254</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0.78236371404939131</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.8566910247084869</v>
+        <v>0.93075959429579291</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.75933948015190622</v>
+        <v>0.83878487066512331</v>
       </c>
     </row>
     <row r="68">
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="0">
-        <v>0.56614276467485447</v>
+        <v>0.81171471832210829</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.59163930376478469</v>
+        <v>0.89628739025599569</v>
       </c>
       <c r="BO68" s="0">
         <v>0.83878487066512331</v>
